--- a/resources/data-imports/Affixes/life_stealing.xlsx
+++ b/resources/data-imports/Affixes/life_stealing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">resistance_reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affix_type</t>
   </si>
   <si>
     <t xml:space="preserve">Blood Leech</t>
@@ -389,10 +392,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI2" activeCellId="0" sqref="AI2:AI25"/>
+      <selection pane="topLeft" activeCell="AN22" activeCellId="0" sqref="AN22:AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,6 +428,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="17.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,16 +549,19 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0.01</v>
@@ -611,7 +618,7 @@
         <v>1000</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ2" s="1" t="n">
         <v>0</v>
@@ -624,6 +631,9 @@
       </c>
       <c r="AM2" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,10 +641,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0.0126</v>
@@ -691,7 +701,7 @@
         <v>2141</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ3" s="1" t="n">
         <v>0</v>
@@ -704,6 +714,9 @@
       </c>
       <c r="AM3" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0.0159</v>
@@ -771,7 +784,7 @@
         <v>4582</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ4" s="1" t="n">
         <v>0</v>
@@ -784,6 +797,9 @@
       </c>
       <c r="AM4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0.02</v>
@@ -851,7 +867,7 @@
         <v>9808</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ5" s="1" t="n">
         <v>0</v>
@@ -864,6 +880,9 @@
       </c>
       <c r="AM5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,10 +890,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0.0251</v>
@@ -931,7 +950,7 @@
         <v>21000</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ6" s="1" t="n">
         <v>0</v>
@@ -944,6 +963,9 @@
       </c>
       <c r="AM6" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,10 +973,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0.0316</v>
@@ -1011,7 +1033,7 @@
         <v>44900</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ7" s="1" t="n">
         <v>0</v>
@@ -1024,6 +1046,9 @@
       </c>
       <c r="AM7" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,10 +1056,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0.0398</v>
@@ -1091,7 +1116,7 @@
         <v>96200</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ8" s="1" t="n">
         <v>0</v>
@@ -1104,6 +1129,9 @@
       </c>
       <c r="AM8" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,10 +1139,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0.0502</v>
@@ -1171,7 +1199,7 @@
         <v>205900</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ9" s="1" t="n">
         <v>0</v>
@@ -1184,6 +1212,9 @@
       </c>
       <c r="AM9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,10 +1222,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0.0631</v>
@@ -1251,7 +1282,7 @@
         <v>440800</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ10" s="1" t="n">
         <v>0</v>
@@ -1264,6 +1295,9 @@
       </c>
       <c r="AM10" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0.0795</v>
@@ -1331,7 +1365,7 @@
         <v>943500</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ11" s="1" t="n">
         <v>0</v>
@@ -1344,6 +1378,9 @@
       </c>
       <c r="AM11" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,10 +1388,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0.1001</v>
@@ -1411,7 +1448,7 @@
         <v>2019500</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ12" s="1" t="n">
         <v>0</v>
@@ -1424,6 +1461,9 @@
       </c>
       <c r="AM12" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN12" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,10 +1471,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0.126</v>
@@ -1491,7 +1531,7 @@
         <v>4322800</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ13" s="1" t="n">
         <v>0</v>
@@ -1504,6 +1544,9 @@
       </c>
       <c r="AM13" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN13" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,10 +1554,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0.1792</v>
@@ -1571,7 +1614,7 @@
         <v>10451500</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ14" s="1" t="n">
         <v>0</v>
@@ -1584,6 +1627,9 @@
       </c>
       <c r="AM14" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN14" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,10 +1637,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0.228</v>
@@ -1651,7 +1697,7 @@
         <v>22600200</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ15" s="1" t="n">
         <v>0</v>
@@ -1664,6 +1710,9 @@
       </c>
       <c r="AM15" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN15" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,10 +1720,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0.29</v>
@@ -1731,7 +1780,7 @@
         <v>48870200</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ16" s="1" t="n">
         <v>0</v>
@@ -1744,6 +1793,9 @@
       </c>
       <c r="AM16" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN16" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,10 +1803,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0.3688</v>
@@ -1811,7 +1863,7 @@
         <v>105675800</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ17" s="1" t="n">
         <v>0</v>
@@ -1824,6 +1876,9 @@
       </c>
       <c r="AM17" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN17" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,10 +1886,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0.4691</v>
@@ -1891,7 +1946,7 @@
         <v>228511100</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ18" s="1" t="n">
         <v>0</v>
@@ -1904,6 +1959,9 @@
       </c>
       <c r="AM18" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,10 +1969,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0.5966</v>
@@ -1971,7 +2029,7 @@
         <v>494127600</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ19" s="1" t="n">
         <v>0</v>
@@ -1984,6 +2042,9 @@
       </c>
       <c r="AM19" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,10 +2052,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0.7588</v>
@@ -2051,7 +2112,7 @@
         <v>1068490900</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ20" s="1" t="n">
         <v>0</v>
@@ -2064,6 +2125,9 @@
       </c>
       <c r="AM20" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN20" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,10 +2135,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0.88</v>
@@ -2131,7 +2195,7 @@
         <v>2310481600</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ21" s="1" t="n">
         <v>0</v>
@@ -2144,6 +2208,9 @@
       </c>
       <c r="AM21" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN21" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,10 +2218,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0.96</v>
@@ -2211,7 +2278,7 @@
         <v>4996135800</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ22" s="1" t="n">
         <v>0</v>
@@ -2224,6 +2291,9 @@
       </c>
       <c r="AM22" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN22" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,10 +2301,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>1.04</v>
@@ -2291,7 +2361,7 @@
         <v>10803536500</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ23" s="1" t="n">
         <v>0</v>
@@ -2304,6 +2374,9 @@
       </c>
       <c r="AM23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN23" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,10 +2384,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>1.12</v>
@@ -2371,7 +2444,7 @@
         <v>23361334900</v>
       </c>
       <c r="AI24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ24" s="1" t="n">
         <v>0</v>
@@ -2384,6 +2457,9 @@
       </c>
       <c r="AM24" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN24" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,10 +2467,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>2</v>
@@ -2451,7 +2527,7 @@
         <v>40000000000</v>
       </c>
       <c r="AI25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ25" s="1" t="n">
         <v>0</v>
@@ -2464,6 +2540,9 @@
       </c>
       <c r="AM25" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AN25" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
